--- a/01 - Machine Learning/Notes/01-JOIN EXAMPLES.xlsx
+++ b/01 - Machine Learning/Notes/01-JOIN EXAMPLES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ce6f9180d7905df/Base/Training/LuminarTechnoLab/LuminarTechnoLab/June Batch/Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ce6f9180d7905df/Base/Training/LuminarTechnoLab/LuminarTechnoLab/AIML-June/01 - Machine Learning/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{EC31B172-C412-4EB5-9D88-07B47264796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CCA0EF-A0EA-4975-A73C-CC8356E5EFF8}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
